--- a/Species_list_v2.xlsx
+++ b/Species_list_v2.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\Projects\OneSTOP\repos\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D5A80E-A833-49FC-AC3C-48156951C1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C8BD99-A8C5-420B-BEBF-D56FD6AD49CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97DD50A9-AF4B-4AB0-83AD-BDD62E1A22CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Target Species" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Target Species'!$A$1:$L$115</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1270,7 +1273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1289,12 +1292,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1309,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1335,10 +1332,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1679,14 +1679,14 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.75" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="4" bestFit="1" customWidth="1"/>
@@ -1704,7 +1704,7 @@
       <c r="A1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1742,7 +1742,7 @@
       <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1778,7 +1778,7 @@
       <c r="A3" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1814,7 +1814,7 @@
       <c r="A4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1850,7 +1850,7 @@
       <c r="A5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1886,7 +1886,7 @@
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1922,7 +1922,7 @@
       <c r="A7" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1958,7 +1958,7 @@
       <c r="A8" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1994,7 +1994,7 @@
       <c r="A9" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2030,7 +2030,7 @@
       <c r="A10" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2066,7 +2066,7 @@
       <c r="A11" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2102,7 +2102,7 @@
       <c r="A12" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2138,7 +2138,7 @@
       <c r="A13" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2174,7 +2174,7 @@
       <c r="A14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2210,7 +2210,7 @@
       <c r="A15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2246,7 +2246,7 @@
       <c r="A16" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -2282,7 +2282,7 @@
       <c r="A17" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2318,7 +2318,7 @@
       <c r="A18" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -2354,7 +2354,7 @@
       <c r="A19" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2390,7 +2390,7 @@
       <c r="A20" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -2426,7 +2426,7 @@
       <c r="A21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2462,7 +2462,7 @@
       <c r="A22" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -2498,7 +2498,7 @@
       <c r="A23" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2534,8 +2534,8 @@
       <c r="A24" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>3</v>
+      <c r="B24" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>103</v>
@@ -2570,7 +2570,7 @@
       <c r="A25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2606,7 +2606,7 @@
       <c r="A26" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2642,7 +2642,7 @@
       <c r="A27" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -2678,7 +2678,7 @@
       <c r="A28" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -2714,8 +2714,8 @@
       <c r="A29" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>3</v>
+      <c r="B29" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>65</v>
@@ -2750,7 +2750,7 @@
       <c r="A30" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2786,7 +2786,7 @@
       <c r="A31" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2822,7 +2822,7 @@
       <c r="A32" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -2858,7 +2858,7 @@
       <c r="A33" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -2894,7 +2894,7 @@
       <c r="A34" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2930,7 +2930,7 @@
       <c r="A35" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -2966,7 +2966,7 @@
       <c r="A36" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3002,7 +3002,7 @@
       <c r="A37" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3038,7 +3038,7 @@
       <c r="A38" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -3074,7 +3074,7 @@
       <c r="A39" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3112,8 +3112,8 @@
       <c r="A40" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>3</v>
+      <c r="B40" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>76</v>
@@ -3148,8 +3148,8 @@
       <c r="A41" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>3</v>
+      <c r="B41" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>77</v>
@@ -3184,7 +3184,7 @@
       <c r="A42" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -3220,7 +3220,7 @@
       <c r="A43" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -3256,7 +3256,7 @@
       <c r="A44" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -3292,7 +3292,7 @@
       <c r="A45" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -3328,7 +3328,7 @@
       <c r="A46" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -3364,7 +3364,7 @@
       <c r="A47" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -3400,7 +3400,7 @@
       <c r="A48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3436,7 +3436,7 @@
       <c r="A49" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -3472,7 +3472,7 @@
       <c r="A50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -3508,7 +3508,7 @@
       <c r="A51" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -3544,7 +3544,7 @@
       <c r="A52" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="7" t="s">
@@ -3580,7 +3580,7 @@
       <c r="A53" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="7" t="s">
@@ -3616,7 +3616,7 @@
       <c r="A54" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -3652,7 +3652,7 @@
       <c r="A55" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="7" t="s">
@@ -3688,7 +3688,7 @@
       <c r="A56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3724,7 +3724,7 @@
       <c r="A57" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="7" t="s">
@@ -3760,7 +3760,7 @@
       <c r="A58" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="7" t="s">
@@ -3796,7 +3796,7 @@
       <c r="A59" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -3832,7 +3832,7 @@
       <c r="A60" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -3868,7 +3868,7 @@
       <c r="A61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3904,7 +3904,7 @@
       <c r="A62" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3940,7 +3940,7 @@
       <c r="A63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3976,7 +3976,7 @@
       <c r="A64" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -4012,7 +4012,7 @@
       <c r="A65" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="7" t="s">
@@ -4048,7 +4048,7 @@
       <c r="A66" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="7" t="s">
@@ -4084,7 +4084,7 @@
       <c r="A67" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -4120,7 +4120,7 @@
       <c r="A68" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="7" t="s">
@@ -4156,7 +4156,7 @@
       <c r="A69" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -4192,7 +4192,7 @@
       <c r="A70" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -4228,7 +4228,7 @@
       <c r="A71" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="7" t="s">
@@ -4264,7 +4264,7 @@
       <c r="A72" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="7" t="s">
@@ -4300,7 +4300,7 @@
       <c r="A73" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="7" t="s">
@@ -4336,7 +4336,7 @@
       <c r="A74" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="7" t="s">
@@ -4372,7 +4372,7 @@
       <c r="A75" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -4408,7 +4408,7 @@
       <c r="A76" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="7" t="s">
@@ -4444,7 +4444,7 @@
       <c r="A77" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="7" t="s">
@@ -4480,7 +4480,7 @@
       <c r="A78" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="7" t="s">
@@ -5845,6 +5845,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L115" xr:uid="{EFBD35CC-3D81-4529-821E-73F2D17B21F3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>